--- a/testcases portoflio.xlsx
+++ b/testcases portoflio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.School\Nova\Periode 3\Projecten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\GitHub\PortfolioWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2CDE7EA-EF2A-42B9-A91F-94E39CC941B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC2330-8BAC-46ED-8BA4-35F52195ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4445E604-1676-43E1-8C94-EBE91A683E63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4445E604-1676-43E1-8C94-EBE91A683E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>bedrijfsnaam</t>
   </si>
   <si>
-    <t>VanVessem</t>
-  </si>
-  <si>
     <t>datum</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>foutmelding: dit is een ongeldig onderwerp</t>
+  </si>
+  <si>
+    <t>Joost</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +676,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -702,13 +702,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -722,13 +722,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -748,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,13 +782,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -802,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -833,30 +833,30 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="16">
         <v>37888</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -867,30 +867,30 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -901,30 +901,30 @@
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -935,42 +935,42 @@
     </row>
     <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -981,42 +981,42 @@
     </row>
     <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
